--- a/medicine/Enfance/Aux_quatre_coins_du_temps/Aux_quatre_coins_du_temps.xlsx
+++ b/medicine/Enfance/Aux_quatre_coins_du_temps/Aux_quatre_coins_du_temps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux quatre coins du temps est une collection disparue de littérature d'enfance et de jeunesse des éditions Bordas, créée en 1978 et arrêtée en 1994.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection est créée en 1978, sous la direction de Paule Pagliano[1]. Elle se distingue par la variété des genres : aventure, merveilleux, science-fiction, humour, roman psychologique…[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection est créée en 1978, sous la direction de Paule Pagliano. Elle se distingue par la variété des genres : aventure, merveilleux, science-fiction, humour, roman psychologique…
 Elle cesse en 1994, mais certains de ses titres sont repris en poche par les éditions Pocket.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Quelques titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean-Pierre Andrevon, Le Train des galaxies
 William Camus et Jacky Soulier, Le Péril vient de la terre et Face au péril, 1981
